--- a/Players/Bharath/Test Case_Radiology_Bharath.xlsx
+++ b/Players/Bharath/Test Case_Radiology_Bharath.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_work\CentralRepository\Players\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749F9A9-0E79-4DD0-9A9E-161C2EC4C9B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94B6D4-AFB0-4E17-8280-538DAEAF07DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="120">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -330,6 +330,113 @@
   </si>
   <si>
     <t>The appoinment should be saved and a green tick mark should be dispayed on the slot</t>
+  </si>
+  <si>
+    <t>Patient ID : NH00000532
+Patient Name : Arun
+Mobile : 67854
+DOB : 28/05/1994</t>
+  </si>
+  <si>
+    <t>Enter data for required field:
+&gt;Patient Id
+or
+&gt;Patient Name
+&gt;Mobile 
+&gt;DOB
+In the Search section</t>
+  </si>
+  <si>
+    <t>Click Search option</t>
+  </si>
+  <si>
+    <t>User should be able to enter the details</t>
+  </si>
+  <si>
+    <t>The patient and details should be displayed</t>
+  </si>
+  <si>
+    <t>Select the patient</t>
+  </si>
+  <si>
+    <t>User should be navigated to the New appoinmnet section with all the details filled out</t>
+  </si>
+  <si>
+    <t>Enter the details for all empty fields</t>
+  </si>
+  <si>
+    <t>User should be able to enter the details for all the empty fields</t>
+  </si>
+  <si>
+    <t>The Appointment should be saved</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_008</t>
+  </si>
+  <si>
+    <t>Precondition: Patient should be registered
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Test case to verify Show Appoinment  Information</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved &gt;&gt;Click on show appoinment information</t>
+  </si>
+  <si>
+    <t>Details of the patient and the appointment should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_009</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved &gt;&gt;Click on Edit Appointment</t>
+  </si>
+  <si>
+    <t>Precondition: Appointment  should be saved
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Edit Appointment pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to the required fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter details or  edit the enabled fields </t>
+  </si>
+  <si>
+    <t>Click on Save option</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_010</t>
+  </si>
+  <si>
+    <t>Test Case to verify whether a User can Edit an Appointment</t>
+  </si>
+  <si>
+    <t>Test Case to verify whether  a User can cancel an appointment</t>
+  </si>
+  <si>
+    <t>Homepage should be displayed</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved &gt;&gt;Click on Cancel Appointment</t>
+  </si>
+  <si>
+    <t>Cancel Appointment pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Enter a valid reason in the "Reason of Cancellation" section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to enter details in the "Reason of Cancellation" section </t>
+  </si>
+  <si>
+    <t>Click on Cancel Appointment option</t>
+  </si>
+  <si>
+    <t>The appointment should be cancelled</t>
   </si>
 </sst>
 </file>
@@ -447,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +643,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,8 +983,8 @@
   <dimension ref="A1:R737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +995,7 @@
     <col min="4" max="4" width="23.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="48.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="15" style="7" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="7"/>
@@ -932,17 +1040,17 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="Q1" s="32" t="s">
+      <c r="O1" s="32"/>
+      <c r="Q1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="32"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -951,7 +1059,7 @@
       <c r="C2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="7">
@@ -960,10 +1068,12 @@
       <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8"/>
       <c r="I2" s="9"/>
       <c r="J2" s="6"/>
       <c r="K2" s="10"/>
@@ -973,7 +1083,7 @@
       </c>
       <c r="O2" s="13">
         <f>COUNTA(A:A)-1</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>15</v>
@@ -984,10 +1094,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="20"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="27">
         <v>2</v>
       </c>
@@ -1010,10 +1120,10 @@
       <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="20"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="27">
         <v>3</v>
       </c>
@@ -1044,10 +1154,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="20"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="27">
         <v>4</v>
       </c>
@@ -1075,9 +1185,9 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="20"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="27">
         <v>5</v>
       </c>
@@ -1098,9 +1208,9 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="20"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="27">
         <v>6</v>
       </c>
@@ -1117,9 +1227,9 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="20"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="27">
         <v>7</v>
       </c>
@@ -1133,9 +1243,9 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="20"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="27">
         <v>8</v>
       </c>
@@ -1152,9 +1262,9 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="20"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="27">
         <v>9</v>
       </c>
@@ -1178,11 +1288,11 @@
       <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="31" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="7">
@@ -1191,17 +1301,20 @@
       <c r="F13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:18" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="21"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="27">
         <v>2</v>
       </c>
@@ -1218,9 +1331,9 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="5"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="27">
         <v>3</v>
       </c>
@@ -1234,9 +1347,9 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="5"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="27">
         <v>4</v>
       </c>
@@ -1250,9 +1363,9 @@
       <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="5"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="27">
         <v>5</v>
       </c>
@@ -1266,9 +1379,9 @@
       <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="5"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="27">
         <v>6</v>
       </c>
@@ -1285,9 +1398,9 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="27">
         <v>7</v>
       </c>
@@ -1306,11 +1419,11 @@
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="7">
@@ -1319,17 +1432,19 @@
       <c r="F21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="28"/>
       <c r="J21" s="6"/>
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="5"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="27">
         <v>2</v>
       </c>
@@ -1346,9 +1461,9 @@
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="27">
         <v>3</v>
       </c>
@@ -1363,9 +1478,9 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="5"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="27">
         <v>4</v>
       </c>
@@ -1380,9 +1495,9 @@
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="27">
         <v>5</v>
       </c>
@@ -1397,9 +1512,9 @@
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="27">
         <v>6</v>
       </c>
@@ -1416,9 +1531,9 @@
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="5"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="27">
         <v>7</v>
       </c>
@@ -1432,9 +1547,9 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="5"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="27">
         <v>8</v>
       </c>
@@ -1448,9 +1563,9 @@
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="5"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="27">
         <v>9</v>
       </c>
@@ -1467,9 +1582,9 @@
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="5"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="27">
         <v>10</v>
       </c>
@@ -1488,11 +1603,11 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="31" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="7">
@@ -1501,17 +1616,19 @@
       <c r="F32" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="28"/>
       <c r="J32" s="6"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="5"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="27">
         <v>2</v>
       </c>
@@ -1528,9 +1645,9 @@
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="5"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="27">
         <v>3</v>
       </c>
@@ -1545,9 +1662,9 @@
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="5"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="27">
         <v>4</v>
       </c>
@@ -1562,9 +1679,9 @@
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="5"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="27">
         <v>5</v>
       </c>
@@ -1579,9 +1696,9 @@
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="5"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="27">
         <v>6</v>
       </c>
@@ -1598,9 +1715,9 @@
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="5"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="27">
         <v>7</v>
       </c>
@@ -1615,9 +1732,9 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="5"/>
-      <c r="D39" s="30"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="27">
         <v>8</v>
       </c>
@@ -1632,9 +1749,9 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="5"/>
-      <c r="D40" s="30"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="27">
         <v>9</v>
       </c>
@@ -1650,10 +1767,10 @@
       <c r="J40" s="6"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="31"/>
       <c r="B41" s="5"/>
-      <c r="D41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="27">
         <v>10</v>
       </c>
@@ -1666,10 +1783,10 @@
       <c r="J41" s="6"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
       <c r="B42" s="5"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="27">
         <v>11</v>
       </c>
@@ -1683,9 +1800,9 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="5"/>
-      <c r="D43" s="30"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="27">
         <v>12</v>
       </c>
@@ -1698,10 +1815,10 @@
       <c r="J43" s="6"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
       <c r="B44" s="5"/>
-      <c r="D44" s="30"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="27">
         <v>13</v>
       </c>
@@ -1725,11 +1842,11 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="31" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="7">
@@ -1738,17 +1855,19 @@
       <c r="F47" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="28"/>
       <c r="J47" s="6"/>
       <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="5"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="27">
         <v>2</v>
       </c>
@@ -1765,9 +1884,9 @@
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="5"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="27">
         <v>3</v>
       </c>
@@ -1782,9 +1901,9 @@
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="5"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="27">
         <v>4</v>
       </c>
@@ -1799,9 +1918,9 @@
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="5"/>
-      <c r="D51" s="30"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="27">
         <v>5</v>
       </c>
@@ -1816,9 +1935,9 @@
       <c r="K51" s="10"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="5"/>
-      <c r="D52" s="30"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="27">
         <v>6</v>
       </c>
@@ -1835,9 +1954,9 @@
       <c r="K52" s="10"/>
     </row>
     <row r="53" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="5"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="27">
         <v>7</v>
       </c>
@@ -1852,9 +1971,9 @@
       <c r="K53" s="10"/>
     </row>
     <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="5"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="27">
         <v>8</v>
       </c>
@@ -1869,9 +1988,9 @@
       <c r="K54" s="10"/>
     </row>
     <row r="55" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="5"/>
-      <c r="D55" s="30"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="27">
         <v>9</v>
       </c>
@@ -1887,11 +2006,11 @@
       <c r="J55" s="6"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+    <row r="56" spans="1:11" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
       <c r="B56" s="22"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="27">
         <v>10</v>
       </c>
@@ -1906,10 +2025,10 @@
       <c r="K56" s="10"/>
     </row>
     <row r="57" spans="1:11" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="22"/>
       <c r="C57" s="25"/>
-      <c r="D57" s="30"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="27">
         <v>11</v>
       </c>
@@ -1926,10 +2045,10 @@
       <c r="K57" s="10"/>
     </row>
     <row r="58" spans="1:11" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="22"/>
       <c r="C58" s="25"/>
-      <c r="D58" s="30"/>
+      <c r="D58" s="31"/>
       <c r="E58" s="27">
         <v>12</v>
       </c>
@@ -1943,10 +2062,10 @@
       <c r="J58" s="25"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+    <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
       <c r="B59" s="5"/>
-      <c r="D59" s="30"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="27">
         <v>13</v>
       </c>
@@ -1960,10 +2079,10 @@
       <c r="J59" s="6"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
       <c r="B60" s="5"/>
-      <c r="D60" s="30"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="27">
         <v>14</v>
       </c>
@@ -1978,9 +2097,9 @@
       <c r="K60" s="10"/>
     </row>
     <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="5"/>
-      <c r="D61" s="30"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="27">
         <v>15</v>
       </c>
@@ -1994,10 +2113,10 @@
       <c r="J61" s="6"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="31"/>
       <c r="B62" s="5"/>
-      <c r="D62" s="30"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="27">
         <v>16</v>
       </c>
@@ -2022,11 +2141,11 @@
       <c r="K64" s="10"/>
     </row>
     <row r="65" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="31" t="s">
         <v>82</v>
       </c>
       <c r="E65" s="7">
@@ -2035,17 +2154,19 @@
       <c r="F65" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H65" s="28"/>
       <c r="J65" s="6"/>
       <c r="K65" s="10"/>
     </row>
     <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="5"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="27">
         <v>2</v>
       </c>
@@ -2062,9 +2183,9 @@
       <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="5"/>
-      <c r="D67" s="30"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="27">
         <v>3</v>
       </c>
@@ -2079,9 +2200,9 @@
       <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="5"/>
-      <c r="D68" s="30"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="27">
         <v>4</v>
       </c>
@@ -2096,9 +2217,9 @@
       <c r="K68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="5"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="27">
         <v>5</v>
       </c>
@@ -2113,9 +2234,9 @@
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="5"/>
-      <c r="D70" s="30"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="27">
         <v>6</v>
       </c>
@@ -2132,9 +2253,9 @@
       <c r="K70" s="10"/>
     </row>
     <row r="71" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="5"/>
-      <c r="D71" s="30"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="27">
         <v>7</v>
       </c>
@@ -2149,9 +2270,9 @@
       <c r="K71" s="10"/>
     </row>
     <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="5"/>
-      <c r="D72" s="30"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="27">
         <v>8</v>
       </c>
@@ -2166,9 +2287,9 @@
       <c r="K72" s="10"/>
     </row>
     <row r="73" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="5"/>
-      <c r="D73" s="30"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="27">
         <v>9</v>
       </c>
@@ -2184,10 +2305,10 @@
       <c r="J73" s="6"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
       <c r="B74" s="5"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="27">
         <v>10</v>
       </c>
@@ -2202,9 +2323,9 @@
       <c r="K74" s="10"/>
     </row>
     <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="5"/>
-      <c r="D75" s="30"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="27">
         <v>11</v>
       </c>
@@ -2221,9 +2342,9 @@
       <c r="K75" s="10"/>
     </row>
     <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="5"/>
-      <c r="D76" s="30"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="27">
         <v>12</v>
       </c>
@@ -2238,9 +2359,9 @@
       <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="5"/>
-      <c r="D77" s="30"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="27">
         <v>13</v>
       </c>
@@ -2263,26 +2384,36 @@
       <c r="J79" s="6"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>84</v>
       </c>
       <c r="B80" s="5"/>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="31" t="s">
         <v>85</v>
       </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
       <c r="F80" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H80" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="28"/>
       <c r="J80" s="6"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="31"/>
       <c r="B81" s="5"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="27">
+        <v>2</v>
+      </c>
       <c r="F81" s="28" t="s">
         <v>44</v>
       </c>
@@ -2295,8 +2426,13 @@
       <c r="J81" s="6"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="31"/>
       <c r="B82" s="5"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="27">
+        <v>3</v>
+      </c>
       <c r="F82" s="28" t="s">
         <v>26</v>
       </c>
@@ -2307,8 +2443,13 @@
       <c r="J82" s="6"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="31"/>
       <c r="B83" s="5"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="27">
+        <v>4</v>
+      </c>
       <c r="F83" s="28" t="s">
         <v>28</v>
       </c>
@@ -2319,8 +2460,13 @@
       <c r="J83" s="6"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="31"/>
       <c r="B84" s="5"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="27">
+        <v>5</v>
+      </c>
       <c r="F84" s="28" t="s">
         <v>65</v>
       </c>
@@ -2331,8 +2477,13 @@
       <c r="J84" s="6"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="31"/>
       <c r="B85" s="5"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27">
+        <v>6</v>
+      </c>
       <c r="F85" s="28" t="s">
         <v>30</v>
       </c>
@@ -2345,8 +2496,13 @@
       <c r="J85" s="6"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="31"/>
       <c r="B86" s="5"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="27">
+        <v>7</v>
+      </c>
       <c r="F86" s="28" t="s">
         <v>51</v>
       </c>
@@ -2357,8 +2513,13 @@
       <c r="J86" s="6"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="31"/>
       <c r="B87" s="5"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="27">
+        <v>8</v>
+      </c>
       <c r="F87" s="28" t="s">
         <v>63</v>
       </c>
@@ -2369,207 +2530,617 @@
       <c r="J87" s="6"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="31"/>
       <c r="B88" s="5"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="27">
+        <v>9</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J88" s="6"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="31"/>
       <c r="B89" s="5"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="27">
+        <v>10</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="J89" s="6"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="31"/>
       <c r="B90" s="5"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="27">
+        <v>11</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="J90" s="6"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="31"/>
       <c r="B91" s="5"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="27">
+        <v>12</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="J91" s="6"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="31"/>
       <c r="B92" s="5"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="27">
+        <v>13</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J92" s="6"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="J93" s="6"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="J94" s="6"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>98</v>
+      </c>
       <c r="B95" s="5"/>
+      <c r="D95" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H95" s="28"/>
       <c r="J95" s="6"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="31"/>
       <c r="B96" s="5"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="27">
+        <v>2</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>46</v>
+      </c>
       <c r="J96" s="6"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="31"/>
       <c r="B97" s="5"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="27">
+        <v>3</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="28"/>
       <c r="J97" s="6"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="31"/>
       <c r="B98" s="5"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="27">
+        <v>4</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="28"/>
       <c r="J98" s="6"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="31"/>
       <c r="B99" s="5"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="27">
+        <v>5</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H99" s="28"/>
       <c r="J99" s="6"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="31"/>
       <c r="B100" s="5"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="27">
+        <v>6</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="J100" s="6"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="31"/>
       <c r="B101" s="5"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="27">
+        <v>7</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" s="28"/>
       <c r="J101" s="6"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="31"/>
       <c r="B102" s="5"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="27">
+        <v>8</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" s="28"/>
       <c r="J102" s="6"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="5"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
       <c r="J103" s="6"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" s="5"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
       <c r="J104" s="6"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="B105" s="5"/>
+      <c r="D105" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="7">
+        <v>1</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H105" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J105" s="6"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="31"/>
       <c r="B106" s="5"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="27">
+        <v>2</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="28"/>
       <c r="J106" s="6"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="31"/>
       <c r="B107" s="5"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="27">
+        <v>3</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="28"/>
       <c r="J107" s="6"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="31"/>
       <c r="B108" s="5"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="27">
+        <v>4</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="J108" s="6"/>
       <c r="K108" s="10"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="31"/>
       <c r="B109" s="5"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="27">
+        <v>5</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="J109" s="6"/>
       <c r="K109" s="10"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="31"/>
       <c r="B110" s="5"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="27">
+        <v>6</v>
+      </c>
+      <c r="F110" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="J110" s="6"/>
       <c r="K110" s="10"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="31"/>
       <c r="B111" s="5"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="27">
+        <v>7</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="J111" s="6"/>
       <c r="K111" s="10"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="31"/>
       <c r="B112" s="5"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="27">
+        <v>8</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="J112" s="6"/>
       <c r="K112" s="10"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="31"/>
       <c r="B113" s="5"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="27">
+        <v>9</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="J113" s="6"/>
       <c r="K113" s="10"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="31"/>
       <c r="B114" s="5"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="27">
+        <v>10</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="J114" s="6"/>
       <c r="K114" s="10"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B115" s="5"/>
       <c r="J115" s="6"/>
       <c r="K115" s="10"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B116" s="5"/>
       <c r="J116" s="6"/>
       <c r="K116" s="10"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>110</v>
+      </c>
       <c r="B117" s="5"/>
+      <c r="D117" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H117" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J117" s="6"/>
       <c r="K117" s="10"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="31"/>
       <c r="B118" s="5"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="27">
+        <v>2</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="J118" s="6"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="31"/>
       <c r="B119" s="5"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="27">
+        <v>3</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="J119" s="6"/>
       <c r="K119" s="10"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="31"/>
       <c r="B120" s="5"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="27">
+        <v>4</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="J120" s="6"/>
       <c r="K120" s="10"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="31"/>
       <c r="B121" s="5"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="27">
+        <v>5</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>66</v>
+      </c>
       <c r="J121" s="6"/>
       <c r="K121" s="10"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="31"/>
       <c r="B122" s="5"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="27">
+        <v>6</v>
+      </c>
+      <c r="F122" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="J122" s="6"/>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="31"/>
       <c r="B123" s="5"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="27">
+        <v>7</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="J123" s="6"/>
       <c r="K123" s="10"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="31"/>
       <c r="B124" s="5"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="27">
+        <v>8</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="J124" s="6"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="31"/>
       <c r="B125" s="5"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="27">
+        <v>9</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="J125" s="6"/>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="31"/>
       <c r="B126" s="5"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="27">
+        <v>10</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="J126" s="6"/>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
       <c r="J127" s="6"/>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="5"/>
       <c r="J128" s="6"/>
       <c r="K128" s="10"/>
@@ -5451,13 +6022,9 @@
       <c r="K737" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="D13:D19"/>
+  <mergeCells count="22">
+    <mergeCell ref="A80:A92"/>
+    <mergeCell ref="D80:D92"/>
     <mergeCell ref="A65:A77"/>
     <mergeCell ref="D65:D77"/>
     <mergeCell ref="A21:A30"/>
@@ -5466,6 +6033,18 @@
     <mergeCell ref="D32:D44"/>
     <mergeCell ref="A47:A62"/>
     <mergeCell ref="D47:D62"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="A105:A114"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="D117:D126"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J489 C2:C663" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5485,15 +6064,17 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G21" r:id="rId3" xr:uid="{6D4A4FFD-9853-4DA8-AD52-5E02B9156723}"/>
-    <hyperlink ref="G32" r:id="rId4" xr:uid="{08C0551B-BED1-4D3B-BB70-34FDD08921D5}"/>
-    <hyperlink ref="G47" r:id="rId5" xr:uid="{ACE0F7C8-FDBB-4B4B-A246-F72E2C249114}"/>
-    <hyperlink ref="G65" r:id="rId6" xr:uid="{3C794EFA-0941-4387-BEDE-1963E2C72278}"/>
-    <hyperlink ref="G80" r:id="rId7" xr:uid="{06A50111-FAB4-4F72-BDE6-C13813D71717}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{DBF75F0E-5DCA-41D6-99F5-6C55E8F08E56}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{7AAAE32D-CE6C-4687-832F-115484069002}"/>
+    <hyperlink ref="H21" r:id="rId3" xr:uid="{27CDBA63-04DB-4C7B-B4AC-C63351D43E9C}"/>
+    <hyperlink ref="H32" r:id="rId4" xr:uid="{0C18ADEB-F501-458A-BB5E-571DE21ED983}"/>
+    <hyperlink ref="H47" r:id="rId5" xr:uid="{2D90E039-283A-4437-AB07-53BF3E1BCC3F}"/>
+    <hyperlink ref="H65" r:id="rId6" xr:uid="{CB74AC1E-AE33-4A59-95E0-E1805609E9DB}"/>
+    <hyperlink ref="H80" r:id="rId7" xr:uid="{D3E21784-2D5F-4619-8048-9B643B5C9BB0}"/>
+    <hyperlink ref="H117" r:id="rId8" xr:uid="{3A9E708C-D44D-47FD-AF93-A0A997CEE3A1}"/>
+    <hyperlink ref="H105" r:id="rId9" xr:uid="{5163BC5E-5C9C-45C1-B446-0E00EDA155F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Players/Bharath/Test Case_Radiology_Bharath.xlsx
+++ b/Players/Bharath/Test Case_Radiology_Bharath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mediware_work\CentralRepository\Players\Bharath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC94B6D4-AFB0-4E17-8280-538DAEAF07DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA098DF-13F5-4CDE-9BA8-2D982C831A60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="213">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Test Case to verify whether a User can search for a machine</t>
-  </si>
-  <si>
-    <t>Date : 28 May 2019</t>
   </si>
   <si>
     <t>Verify whether the Select All option is unselected</t>
@@ -359,9 +356,6 @@
     <t>Select the patient</t>
   </si>
   <si>
-    <t>User should be navigated to the New appoinmnet section with all the details filled out</t>
-  </si>
-  <si>
     <t>Enter the details for all empty fields</t>
   </si>
   <si>
@@ -437,6 +431,331 @@
   </si>
   <si>
     <t>The appointment should be cancelled</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_011</t>
+  </si>
+  <si>
+    <t>Test Case to verify Appointment Slip</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved &gt;&gt;Click on Appointment Slip</t>
+  </si>
+  <si>
+    <t>Appointment Slip with all the details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_012</t>
+  </si>
+  <si>
+    <t>Test Case to verify Cut Appointment</t>
+  </si>
+  <si>
+    <t>"1 Appointment in clipboard " message should be displayed on the right pane of the page</t>
+  </si>
+  <si>
+    <t>Click on the Save option</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved (19:40)&gt;&gt;Click on Cut Appointment</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt;hover to the appointment slot required(20:00)&gt;&gt;Click on Paste Appointment option</t>
+  </si>
+  <si>
+    <t>The appointment should be saved in the required slot(20:00)</t>
+  </si>
+  <si>
+    <t>Test Case to verify Copy Appointment</t>
+  </si>
+  <si>
+    <t>The appointment from the slot should be cleared and "1 Appointment in clipboard " message should be displayed on the right pane of the page</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot where the appoinment is saved (20:20)&gt;&gt;Click on Copy Appointment</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt;hover to the appointment slot required(20:40)&gt;&gt;Click on Paste Appointment option</t>
+  </si>
+  <si>
+    <t>The duplicate of the appointment should be saved in the required slot(20:40)</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_013</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the Billing section &gt;&gt; Click on Lab &amp; Billing Section </t>
+  </si>
+  <si>
+    <t>Test Case to verify Arrival(Registered Patient)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select appropriate values for Outlet and Counter dropdown </t>
+  </si>
+  <si>
+    <t>Outlet :Radiology Charges (NSH)
+Counter : Radiology Charges (NSH)</t>
+  </si>
+  <si>
+    <t>User should be able to select values for both dropdowns and Lab &amp; General Billing Dashboard should be displayed.</t>
+  </si>
+  <si>
+    <t>Navigate to Menu Section &gt;&gt; Select Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Bill type </t>
+  </si>
+  <si>
+    <t>Bill Type : Cash</t>
+  </si>
+  <si>
+    <t>Enter Patient ID of the patient that has taken the radiology appointment in "Patient #  OP "  field</t>
+  </si>
+  <si>
+    <t>Patient #  OP : NH00000532</t>
+  </si>
+  <si>
+    <t>Select the required procedure from the Description field</t>
+  </si>
+  <si>
+    <t>Enter the required data for all the other fields 
+1. Lab
+2.Units
+3.Rate
+4.Disc%
+5.Disc
+6.Net.Amt
+7.Ded%
+8.Deduct
+9.Co%
+10.CoPay Amt
+11.Insured
+12.PK
+13.Disc.Auth
+14.Disc.Cat
+15.Approval Code</t>
+  </si>
+  <si>
+    <t>Lab : AL BORG
+Units : 1.000
+Rate :  3400.00
+Disc% : 40.00
+Disc : 0.00
+Net.Amt : 3400.00
+Ded% : 0.00
+Deduct :  0.00
+Co% : 0.00
+CoPay Amt :  0.00
+Disc.Auth : ACCOUNTS
+Disc.Cat : 
+Approval Code :  BRANCH MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  the Add item icon </t>
+  </si>
+  <si>
+    <t>User should be able to add procedure</t>
+  </si>
+  <si>
+    <t>Confirmation pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on the desired  option</t>
+  </si>
+  <si>
+    <t>User should be able click the desired options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Close </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to close the Lab and General Billing pop-up </t>
+  </si>
+  <si>
+    <t>Hover over the slot where the appointment is saved &gt;&gt;Click  on the Arrival option</t>
+  </si>
+  <si>
+    <t>Radiology Arrival section will be displayed</t>
+  </si>
+  <si>
+    <t>Select  the bill for the required procedure from the Billing Information section</t>
+  </si>
+  <si>
+    <t>User should be able to select the bill</t>
+  </si>
+  <si>
+    <t>Click on Mark as Arrived</t>
+  </si>
+  <si>
+    <t>Arrived icon should be displayed on the slot</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_015</t>
+  </si>
+  <si>
+    <t>Preconditions: Patient should be registered
+Precondition: The  appointment of the patient should be saved
+Precondition: Patient should be billed
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Hover to the slot where the appointment is saved &gt;&gt;Click on Arrival option</t>
+  </si>
+  <si>
+    <t>Radiology Arrivalpop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Select the required bill from the Bill Information section</t>
+  </si>
+  <si>
+    <t>User should be able to select the required bill</t>
+  </si>
+  <si>
+    <t>Click on the Emergency text box</t>
+  </si>
+  <si>
+    <t>User should be able to select the Emergency text box</t>
+  </si>
+  <si>
+    <t>Click on Marked As Arrived option</t>
+  </si>
+  <si>
+    <t>Arrived icon and the Emergency icon should be displayed on the slot</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a slot can be blocked</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_016</t>
+  </si>
+  <si>
+    <t>Date : 29 May 2019</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; hover on the required slot &gt;Click on Block Slot option</t>
+  </si>
+  <si>
+    <t>Block Slots pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Enter a valid reason in the Reason of Blocking section</t>
+  </si>
+  <si>
+    <t>User should be able to enter data in the field</t>
+  </si>
+  <si>
+    <t>Select End time and click on save option</t>
+  </si>
+  <si>
+    <t>User should be able to block the slots for  the selected duration</t>
+  </si>
+  <si>
+    <t>End Time: 10:50</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_017</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a blocked slot can be Unblocked</t>
+  </si>
+  <si>
+    <t>Navigate to the central pane &gt;&gt; Hover on the Blocked slot &gt;&gt;Click on UnBlock Slot option</t>
+  </si>
+  <si>
+    <t>UnBlock Slots pop-up should be displayed</t>
+  </si>
+  <si>
+    <t>Click on UnBlock Slot option</t>
+  </si>
+  <si>
+    <t>Blocked Slots should be UnBlocked</t>
+  </si>
+  <si>
+    <t>User should be navigated to the New appoinmnet section with all the stored details filled out .
+The Appoinments section with the details of date of appointment ,machine name, current status and status should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to enter the details.</t>
+  </si>
+  <si>
+    <t>User should be navigated to the New appoinmnet section with all the stored details filled out .
+The Appoinments section with the details of date of appointment ,machine name, current status and status should be displayed.</t>
+  </si>
+  <si>
+    <t>User should be able to enter the details for all the empty fields.</t>
+  </si>
+  <si>
+    <t>Select Outlet pop-up should be displayed.</t>
+  </si>
+  <si>
+    <t>Lab and  General Billing pop-up should be displayed.</t>
+  </si>
+  <si>
+    <t>User should be able to select  the bill type.</t>
+  </si>
+  <si>
+    <t>All the stored details should be filled out.</t>
+  </si>
+  <si>
+    <t>User should be able to select the required procedure.</t>
+  </si>
+  <si>
+    <t>User should be able to enter details on all the fields</t>
+  </si>
+  <si>
+    <t>The User  should be able to enter details on all the fields</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_018</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a registered patient can create a confirmed appointment</t>
+  </si>
+  <si>
+    <t>Test case to verify Arrival(Emergency/Registered Patient)</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_019</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a registered patient can create a confirmed appointment(Referred)</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_020</t>
+  </si>
+  <si>
+    <t>Test case to verify whether a registered patient can create a appointment(Referred)</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_021</t>
+  </si>
+  <si>
+    <t>Test case to verify whether an InPatient can create an appointment</t>
+  </si>
+  <si>
+    <t>Precondition: A regestered InPatient should exist
+Login to the URL</t>
+  </si>
+  <si>
+    <t>Enter data of a In-Patient for required field:
+&gt;Patient Id
+or
+&gt;Patient Name
+&gt;Mobile 
+&gt;DOB
+In the Search section</t>
+  </si>
+  <si>
+    <t>The appoinment should be saved and In-Patient icon should be displayed.</t>
+  </si>
+  <si>
+    <t>MED_RAD_TC_022</t>
+  </si>
+  <si>
+    <t>Test Case to verify Test Summary</t>
   </si>
 </sst>
 </file>
@@ -980,11 +1299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R737"/>
+  <dimension ref="A1:R734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1388,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>25</v>
@@ -1083,7 +1402,7 @@
       </c>
       <c r="O2" s="13">
         <f>COUNTA(A:A)-1</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>15</v>
@@ -1102,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="6"/>
@@ -1192,10 +1511,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="10"/>
@@ -1218,10 +1537,10 @@
         <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="10"/>
@@ -1234,10 +1553,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="10"/>
@@ -1250,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="10"/>
@@ -1269,10 +1588,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="10"/>
@@ -1289,11 +1608,11 @@
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -1302,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>25</v>
@@ -1319,13 +1638,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="10"/>
@@ -1370,10 +1689,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="10"/>
@@ -1389,10 +1708,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="10"/>
@@ -1405,10 +1724,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="10"/>
@@ -1420,11 +1739,11 @@
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5"/>
       <c r="D21" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -1433,7 +1752,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>25</v>
@@ -1449,13 +1768,13 @@
         <v>2</v>
       </c>
       <c r="F22" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="H22" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="10"/>
@@ -1502,10 +1821,10 @@
         <v>5</v>
       </c>
       <c r="F25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H25" s="28"/>
       <c r="J25" s="6"/>
@@ -1522,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="10"/>
@@ -1538,10 +1857,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="10"/>
@@ -1554,10 +1873,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="10"/>
@@ -1570,13 +1889,13 @@
         <v>9</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="10"/>
@@ -1589,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="10"/>
@@ -1604,11 +1923,11 @@
     </row>
     <row r="32" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5"/>
       <c r="D32" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
@@ -1617,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>25</v>
@@ -1633,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="F33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="H33" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="10"/>
@@ -1686,10 +2005,10 @@
         <v>5</v>
       </c>
       <c r="F36" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H36" s="28"/>
       <c r="J36" s="6"/>
@@ -1706,10 +2025,10 @@
         <v>30</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="10"/>
@@ -1722,10 +2041,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" s="28"/>
       <c r="J38" s="6"/>
@@ -1739,10 +2058,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="H39" s="28"/>
       <c r="J39" s="6"/>
@@ -1756,13 +2075,13 @@
         <v>9</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H40" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="10"/>
@@ -1775,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="10"/>
@@ -1791,10 +2110,10 @@
         <v>11</v>
       </c>
       <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="10"/>
@@ -1807,10 +2126,10 @@
         <v>12</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="10"/>
@@ -1823,10 +2142,10 @@
         <v>13</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="10"/>
@@ -1843,11 +2162,11 @@
     </row>
     <row r="47" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="5"/>
       <c r="D47" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="7">
         <v>1</v>
@@ -1856,7 +2175,7 @@
         <v>24</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>25</v>
@@ -1872,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="F48" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="H48" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="10"/>
@@ -1925,10 +2244,10 @@
         <v>5</v>
       </c>
       <c r="F51" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H51" s="28"/>
       <c r="J51" s="6"/>
@@ -1945,10 +2264,10 @@
         <v>30</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="10"/>
@@ -1961,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" s="28"/>
       <c r="J53" s="6"/>
@@ -1978,10 +2297,10 @@
         <v>8</v>
       </c>
       <c r="F54" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="H54" s="28"/>
       <c r="J54" s="6"/>
@@ -1995,13 +2314,13 @@
         <v>9</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="10"/>
@@ -2015,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="28" t="s">
         <v>74</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>75</v>
       </c>
       <c r="H56" s="28"/>
       <c r="J56" s="25"/>
@@ -2033,13 +2352,13 @@
         <v>11</v>
       </c>
       <c r="F57" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="H57" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="J57" s="25"/>
       <c r="K57" s="10"/>
@@ -2053,10 +2372,10 @@
         <v>12</v>
       </c>
       <c r="F58" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="H58" s="28"/>
       <c r="J58" s="25"/>
@@ -2070,10 +2389,10 @@
         <v>13</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H59" s="28"/>
       <c r="J59" s="6"/>
@@ -2087,10 +2406,10 @@
         <v>14</v>
       </c>
       <c r="F60" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>57</v>
       </c>
       <c r="H60" s="28"/>
       <c r="J60" s="6"/>
@@ -2104,10 +2423,10 @@
         <v>15</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61" s="28"/>
       <c r="J61" s="6"/>
@@ -2121,10 +2440,10 @@
         <v>16</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H62" s="28"/>
       <c r="J62" s="6"/>
@@ -2142,11 +2461,11 @@
     </row>
     <row r="65" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="5"/>
       <c r="D65" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
@@ -2155,7 +2474,7 @@
         <v>24</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>25</v>
@@ -2171,13 +2490,13 @@
         <v>2</v>
       </c>
       <c r="F66" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="H66" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="10"/>
@@ -2224,10 +2543,10 @@
         <v>5</v>
       </c>
       <c r="F69" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H69" s="28"/>
       <c r="J69" s="6"/>
@@ -2244,10 +2563,10 @@
         <v>30</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="10"/>
@@ -2260,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" s="28"/>
       <c r="J71" s="6"/>
@@ -2277,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="F72" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="H72" s="28"/>
       <c r="J72" s="6"/>
@@ -2294,13 +2613,13 @@
         <v>9</v>
       </c>
       <c r="F73" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="H73" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="10"/>
@@ -2313,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="F74" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="28" t="s">
         <v>74</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>75</v>
       </c>
       <c r="H74" s="28"/>
       <c r="J74" s="6"/>
@@ -2330,13 +2649,13 @@
         <v>11</v>
       </c>
       <c r="F75" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G75" s="28" t="s">
+      <c r="H75" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="10"/>
@@ -2349,10 +2668,10 @@
         <v>12</v>
       </c>
       <c r="F76" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="H76" s="28"/>
       <c r="J76" s="6"/>
@@ -2366,10 +2685,10 @@
         <v>13</v>
       </c>
       <c r="F77" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="10"/>
@@ -2386,20 +2705,20 @@
     </row>
     <row r="80" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="5"/>
       <c r="D80" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>25</v>
@@ -2415,13 +2734,13 @@
         <v>2</v>
       </c>
       <c r="F81" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="28" t="s">
+      <c r="H81" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H81" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="10"/>
@@ -2468,10 +2787,10 @@
         <v>5</v>
       </c>
       <c r="F84" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H84" s="28"/>
       <c r="J84" s="6"/>
@@ -2488,10 +2807,10 @@
         <v>30</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H85" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="10"/>
@@ -2504,10 +2823,10 @@
         <v>7</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" s="28"/>
       <c r="J86" s="6"/>
@@ -2521,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="F87" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="H87" s="28"/>
       <c r="J87" s="6"/>
@@ -2538,13 +2857,13 @@
         <v>9</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="10"/>
@@ -2557,15 +2876,15 @@
         <v>10</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A90" s="31"/>
       <c r="B90" s="5"/>
       <c r="D90" s="31"/>
@@ -2573,10 +2892,10 @@
         <v>11</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="10"/>
@@ -2589,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="10"/>
@@ -2605,10 +2924,10 @@
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="10"/>
@@ -2625,20 +2944,20 @@
     </row>
     <row r="95" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95" s="5"/>
       <c r="D95" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H95" s="28"/>
       <c r="J95" s="6"/>
@@ -2652,13 +2971,13 @@
         <v>2</v>
       </c>
       <c r="F96" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G96" s="28" t="s">
+      <c r="H96" s="29" t="s">
         <v>45</v>
-      </c>
-      <c r="H96" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="10"/>
@@ -2705,10 +3024,10 @@
         <v>5</v>
       </c>
       <c r="F99" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H99" s="28"/>
       <c r="J99" s="6"/>
@@ -2725,10 +3044,10 @@
         <v>30</v>
       </c>
       <c r="G100" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="10"/>
@@ -2741,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G101" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" s="28"/>
       <c r="J101" s="6"/>
@@ -2758,10 +3077,10 @@
         <v>8</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H102" s="28"/>
       <c r="J102" s="6"/>
@@ -2785,20 +3104,20 @@
     </row>
     <row r="105" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" s="5"/>
       <c r="D105" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H105" s="19" t="s">
         <v>25</v>
@@ -2814,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="F106" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="H106" s="28"/>
       <c r="J106" s="6"/>
@@ -2864,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="F109" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="10"/>
@@ -2883,10 +3202,10 @@
         <v>30</v>
       </c>
       <c r="G110" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="10"/>
@@ -2899,10 +3218,10 @@
         <v>7</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G111" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="10"/>
@@ -2915,10 +3234,10 @@
         <v>8</v>
       </c>
       <c r="F112" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>106</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="10"/>
@@ -2931,10 +3250,10 @@
         <v>9</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="10"/>
@@ -2947,10 +3266,10 @@
         <v>10</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="10"/>
@@ -2967,20 +3286,20 @@
     </row>
     <row r="117" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B117" s="5"/>
       <c r="D117" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G117" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H117" s="19" t="s">
         <v>25</v>
@@ -2996,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="F118" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="G118" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="10"/>
@@ -3044,10 +3363,10 @@
         <v>5</v>
       </c>
       <c r="F121" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G121" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" s="10"/>
@@ -3063,10 +3382,10 @@
         <v>30</v>
       </c>
       <c r="G122" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="J122" s="6"/>
       <c r="K122" s="10"/>
@@ -3079,10 +3398,10 @@
         <v>7</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G123" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="10"/>
@@ -3095,10 +3414,10 @@
         <v>8</v>
       </c>
       <c r="F124" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J124" s="6"/>
       <c r="K124" s="10"/>
@@ -3111,10 +3430,10 @@
         <v>9</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J125" s="6"/>
       <c r="K125" s="10"/>
@@ -3127,10 +3446,10 @@
         <v>10</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J126" s="6"/>
       <c r="K126" s="10"/>
@@ -3145,962 +3464,2880 @@
       <c r="J128" s="6"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="B129" s="5"/>
+      <c r="D129" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G129" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H129" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J129" s="6"/>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="31"/>
       <c r="B130" s="5"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="27">
+        <v>2</v>
+      </c>
+      <c r="F130" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="28"/>
       <c r="J130" s="6"/>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="31"/>
       <c r="B131" s="5"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="27">
+        <v>3</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="28"/>
       <c r="J131" s="6"/>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="31"/>
       <c r="B132" s="5"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="27">
+        <v>4</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" s="28"/>
       <c r="J132" s="6"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="31"/>
       <c r="B133" s="5"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="27">
+        <v>5</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H133" s="28"/>
       <c r="J133" s="6"/>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="31"/>
       <c r="B134" s="5"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="27">
+        <v>6</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J134" s="6"/>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="31"/>
       <c r="B135" s="5"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="27">
+        <v>7</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H135" s="28"/>
       <c r="J135" s="6"/>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="31"/>
       <c r="B136" s="5"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="27">
+        <v>8</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G136" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H136" s="28"/>
       <c r="J136" s="6"/>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
       <c r="J137" s="6"/>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B138" s="5"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
       <c r="J138" s="6"/>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="B139" s="5"/>
+      <c r="D139" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G139" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H139" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J139" s="6"/>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="31"/>
       <c r="B140" s="5"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="27">
+        <v>2</v>
+      </c>
+      <c r="F140" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H140" s="28"/>
       <c r="J140" s="6"/>
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="31"/>
       <c r="B141" s="5"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="27">
+        <v>3</v>
+      </c>
+      <c r="F141" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="28"/>
       <c r="J141" s="6"/>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="31"/>
       <c r="B142" s="5"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="27">
+        <v>4</v>
+      </c>
+      <c r="F142" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="28"/>
       <c r="J142" s="6"/>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="31"/>
       <c r="B143" s="5"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="27">
+        <v>5</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H143" s="28"/>
       <c r="J143" s="6"/>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="31"/>
       <c r="B144" s="5"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="27">
+        <v>6</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J144" s="6"/>
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A145" s="31"/>
       <c r="B145" s="5"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="27">
+        <v>7</v>
+      </c>
+      <c r="F145" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H145" s="28"/>
       <c r="J145" s="6"/>
       <c r="K145" s="10"/>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="31"/>
       <c r="B146" s="5"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="27">
+        <v>8</v>
+      </c>
+      <c r="F146" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H146" s="28"/>
       <c r="J146" s="6"/>
       <c r="K146" s="10"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="31"/>
       <c r="B147" s="5"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="27">
+        <v>9</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="J147" s="6"/>
       <c r="K147" s="10"/>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="31"/>
       <c r="B148" s="5"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="27">
+        <v>10</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="J148" s="6"/>
       <c r="K148" s="10"/>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="J149" s="6"/>
       <c r="K149" s="10"/>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B150" s="5"/>
       <c r="J150" s="6"/>
       <c r="K150" s="10"/>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="31" t="s">
+        <v>134</v>
+      </c>
       <c r="B151" s="5"/>
+      <c r="D151" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" s="7">
+        <v>1</v>
+      </c>
+      <c r="F151" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G151" s="30" t="s">
+        <v>111</v>
+      </c>
       <c r="J151" s="6"/>
       <c r="K151" s="10"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="31"/>
       <c r="B152" s="5"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="27">
+        <v>2</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="J152" s="6"/>
       <c r="K152" s="10"/>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="31"/>
       <c r="B153" s="5"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="27">
+        <v>3</v>
+      </c>
+      <c r="F153" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="J153" s="6"/>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="31"/>
       <c r="B154" s="5"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="27">
+        <v>4</v>
+      </c>
+      <c r="F154" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G154" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="J154" s="6"/>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="31"/>
       <c r="B155" s="5"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="27">
+        <v>5</v>
+      </c>
+      <c r="F155" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="J155" s="6"/>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="31"/>
       <c r="B156" s="5"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="27">
+        <v>6</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="J156" s="6"/>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="31"/>
       <c r="B157" s="5"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="27">
+        <v>7</v>
+      </c>
+      <c r="F157" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G157" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="J157" s="6"/>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="31"/>
       <c r="B158" s="5"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="27">
+        <v>8</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>124</v>
+      </c>
       <c r="J158" s="6"/>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="31"/>
       <c r="B159" s="5"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="27">
+        <v>9</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="J159" s="6"/>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="31"/>
       <c r="B160" s="5"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="27">
+        <v>10</v>
+      </c>
+      <c r="F160" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G160" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="J160" s="6"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
       <c r="J161" s="6"/>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162" s="5"/>
       <c r="J162" s="6"/>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="B163" s="5"/>
+      <c r="D163" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G163" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H163" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J163" s="6"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="31"/>
       <c r="B164" s="5"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="27">
+        <v>2</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J164" s="6"/>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="31"/>
       <c r="B165" s="5"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="27">
+        <v>3</v>
+      </c>
+      <c r="F165" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" s="28"/>
       <c r="J165" s="6"/>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="31"/>
       <c r="B166" s="5"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="27">
+        <v>4</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H166" s="28"/>
       <c r="J166" s="6"/>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="31"/>
       <c r="B167" s="5"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="27">
+        <v>5</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167" s="28"/>
       <c r="J167" s="6"/>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="31"/>
       <c r="B168" s="5"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="27">
+        <v>6</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H168" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J168" s="6"/>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A169" s="31"/>
       <c r="B169" s="5"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="27">
+        <v>7</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G169" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H169" s="28"/>
       <c r="J169" s="6"/>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="31"/>
       <c r="B170" s="5"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="27">
+        <v>8</v>
+      </c>
+      <c r="F170" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G170" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H170" s="28"/>
       <c r="J170" s="6"/>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A171" s="31"/>
       <c r="B171" s="5"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="27">
+        <v>9</v>
+      </c>
+      <c r="F171" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H171" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J171" s="6"/>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="31"/>
       <c r="B172" s="5"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="27">
+        <v>10</v>
+      </c>
+      <c r="F172" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G172" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H172" s="28"/>
       <c r="J172" s="6"/>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A173" s="31"/>
       <c r="B173" s="5"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="27">
+        <v>11</v>
+      </c>
+      <c r="F173" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G173" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H173" s="28"/>
       <c r="J173" s="6"/>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="31"/>
       <c r="B174" s="5"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="27">
+        <v>12</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="H174" s="28"/>
       <c r="J174" s="6"/>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="31"/>
       <c r="B175" s="5"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="27">
+        <v>13</v>
+      </c>
+      <c r="F175" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G175" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H175" s="28"/>
       <c r="J175" s="6"/>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="31"/>
       <c r="B176" s="5"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="27">
+        <v>14</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="J176" s="6"/>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A177" s="31"/>
       <c r="B177" s="5"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="27">
+        <v>15</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="J177" s="6"/>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="31"/>
       <c r="B178" s="5"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="27">
+        <v>16</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="J178" s="6"/>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="31"/>
       <c r="B179" s="5"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="27">
+        <v>17</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="J179" s="6"/>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="31"/>
       <c r="B180" s="5"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="27">
+        <v>18</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="J180" s="6"/>
       <c r="K180" s="10"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="31"/>
       <c r="B181" s="5"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="27">
+        <v>19</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="J181" s="6"/>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A182" s="31"/>
       <c r="B182" s="5"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="27">
+        <v>20</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="J182" s="6"/>
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="31"/>
       <c r="B183" s="5"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="27">
+        <v>21</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="J183" s="6"/>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="31"/>
       <c r="B184" s="5"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="27">
+        <v>22</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="J184" s="6"/>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="31"/>
       <c r="B185" s="5"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="27">
+        <v>23</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="J185" s="6"/>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="31"/>
       <c r="B186" s="5"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="27">
+        <v>24</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="J186" s="6"/>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="31"/>
       <c r="B187" s="5"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="27">
+        <v>25</v>
+      </c>
+      <c r="F187" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="28" t="s">
+        <v>27</v>
+      </c>
       <c r="J187" s="6"/>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="31"/>
       <c r="B188" s="5"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="27">
+        <v>26</v>
+      </c>
+      <c r="F188" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="J188" s="6"/>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="31"/>
       <c r="B189" s="5"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="27">
+        <v>27</v>
+      </c>
+      <c r="F189" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G189" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="J189" s="6"/>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="31"/>
       <c r="B190" s="5"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="27">
+        <v>28</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="J190" s="6"/>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="31"/>
       <c r="B191" s="5"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="27">
+        <v>29</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="J191" s="6"/>
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="31"/>
       <c r="B192" s="5"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="27">
+        <v>30</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="J192" s="6"/>
       <c r="K192" s="10"/>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B193" s="5"/>
       <c r="J193" s="6"/>
       <c r="K193" s="10"/>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B194" s="5"/>
       <c r="J194" s="6"/>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
+        <v>162</v>
+      </c>
       <c r="B195" s="5"/>
+      <c r="D195" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E195" s="7">
+        <v>1</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H195" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J195" s="6"/>
       <c r="K195" s="10"/>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="31"/>
       <c r="B196" s="5"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="27">
+        <v>2</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H196" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J196" s="6"/>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="31"/>
       <c r="B197" s="5"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="27">
+        <v>3</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" s="28"/>
       <c r="J197" s="6"/>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="31"/>
       <c r="B198" s="5"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="27">
+        <v>4</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="28"/>
       <c r="J198" s="6"/>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="31"/>
       <c r="B199" s="5"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="27">
+        <v>5</v>
+      </c>
+      <c r="F199" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G199" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H199" s="28"/>
       <c r="J199" s="6"/>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="31"/>
       <c r="B200" s="5"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="27">
+        <v>6</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="J200" s="6"/>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="31"/>
       <c r="B201" s="5"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="27">
+        <v>7</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="J201" s="6"/>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="31"/>
       <c r="B202" s="5"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="27">
+        <v>8</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="J202" s="6"/>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="31"/>
       <c r="B203" s="5"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="27">
+        <v>9</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="J203" s="6"/>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
       <c r="J204" s="6"/>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
       <c r="J205" s="6"/>
       <c r="K205" s="10"/>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
       <c r="J206" s="6"/>
       <c r="K206" s="10"/>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="B207" s="5"/>
+      <c r="D207" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E207" s="7">
+        <v>1</v>
+      </c>
+      <c r="F207" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G207" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H207" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J207" s="6"/>
       <c r="K207" s="10"/>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="31"/>
       <c r="B208" s="5"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="27">
+        <v>2</v>
+      </c>
+      <c r="F208" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H208" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J208" s="6"/>
       <c r="K208" s="10"/>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="31"/>
       <c r="B209" s="5"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="27">
+        <v>3</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H209" s="28"/>
       <c r="J209" s="6"/>
       <c r="K209" s="10"/>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="31"/>
       <c r="B210" s="5"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="27">
+        <v>4</v>
+      </c>
+      <c r="F210" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H210" s="28"/>
       <c r="J210" s="6"/>
       <c r="K210" s="10"/>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="31"/>
       <c r="B211" s="5"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="27">
+        <v>5</v>
+      </c>
+      <c r="F211" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H211" s="28"/>
       <c r="J211" s="6"/>
       <c r="K211" s="10"/>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="31"/>
       <c r="B212" s="5"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="27">
+        <v>6</v>
+      </c>
+      <c r="F212" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H212" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J212" s="6"/>
       <c r="K212" s="10"/>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213" s="31"/>
       <c r="B213" s="5"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="27">
+        <v>7</v>
+      </c>
+      <c r="F213" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H213" s="28"/>
       <c r="J213" s="6"/>
       <c r="K213" s="10"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="31"/>
       <c r="B214" s="5"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="27">
+        <v>8</v>
+      </c>
+      <c r="F214" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H214" s="28"/>
       <c r="J214" s="6"/>
       <c r="K214" s="10"/>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="31"/>
       <c r="B215" s="5"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="27">
+        <v>9</v>
+      </c>
+      <c r="F215" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H215" s="28"/>
       <c r="J215" s="6"/>
       <c r="K215" s="10"/>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="31"/>
       <c r="B216" s="5"/>
+      <c r="D216" s="31"/>
+      <c r="E216" s="27">
+        <v>10</v>
+      </c>
+      <c r="F216" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H216" s="28" t="s">
+        <v>181</v>
+      </c>
       <c r="J216" s="6"/>
       <c r="K216" s="10"/>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
       <c r="J217" s="6"/>
       <c r="K217" s="10"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
       <c r="J218" s="6"/>
       <c r="K218" s="10"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
       <c r="J219" s="6"/>
       <c r="K219" s="10"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="31" t="s">
+        <v>182</v>
+      </c>
       <c r="B220" s="5"/>
+      <c r="D220" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E220" s="7">
+        <v>1</v>
+      </c>
+      <c r="F220" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G220" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J220" s="6"/>
       <c r="K220" s="10"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="31"/>
       <c r="B221" s="5"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="27">
+        <v>2</v>
+      </c>
+      <c r="F221" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H221" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J221" s="6"/>
       <c r="K221" s="10"/>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="31"/>
       <c r="B222" s="5"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="27">
+        <v>3</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H222" s="28"/>
       <c r="J222" s="6"/>
       <c r="K222" s="10"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="31"/>
       <c r="B223" s="5"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="27">
+        <v>4</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G223" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="28"/>
       <c r="J223" s="6"/>
       <c r="K223" s="10"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="31"/>
       <c r="B224" s="5"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="27">
+        <v>5</v>
+      </c>
+      <c r="F224" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G224" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H224" s="28"/>
       <c r="J224" s="6"/>
       <c r="K224" s="10"/>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="31"/>
       <c r="B225" s="5"/>
+      <c r="D225" s="31"/>
+      <c r="E225" s="27">
+        <v>6</v>
+      </c>
+      <c r="F225" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G225" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H225" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J225" s="6"/>
       <c r="K225" s="10"/>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A226" s="31"/>
       <c r="B226" s="5"/>
+      <c r="D226" s="31"/>
+      <c r="E226" s="27">
+        <v>7</v>
+      </c>
+      <c r="F226" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G226" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H226" s="28"/>
       <c r="J226" s="6"/>
       <c r="K226" s="10"/>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="31"/>
       <c r="B227" s="5"/>
+      <c r="D227" s="31"/>
+      <c r="E227" s="27">
+        <v>8</v>
+      </c>
+      <c r="F227" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G227" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H227" s="28"/>
       <c r="J227" s="6"/>
       <c r="K227" s="10"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="31"/>
       <c r="B228" s="5"/>
+      <c r="D228" s="31"/>
+      <c r="E228" s="27">
+        <v>9</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="J228" s="6"/>
       <c r="K228" s="10"/>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="31"/>
       <c r="B229" s="5"/>
+      <c r="D229" s="31"/>
+      <c r="E229" s="27">
+        <v>10</v>
+      </c>
+      <c r="F229" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G229" s="28" t="s">
+        <v>187</v>
+      </c>
       <c r="J229" s="6"/>
       <c r="K229" s="10"/>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
       <c r="J230" s="6"/>
       <c r="K230" s="10"/>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
       <c r="J231" s="6"/>
       <c r="K231" s="10"/>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="31" t="s">
+        <v>199</v>
+      </c>
       <c r="B232" s="5"/>
+      <c r="D232" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E232" s="7">
+        <v>1</v>
+      </c>
+      <c r="F232" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G232" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H232" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J232" s="6"/>
       <c r="K232" s="10"/>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="31"/>
       <c r="B233" s="5"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="27">
+        <v>2</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G233" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H233" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J233" s="6"/>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="31"/>
       <c r="B234" s="5"/>
+      <c r="D234" s="31"/>
+      <c r="E234" s="27">
+        <v>3</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H234" s="28"/>
       <c r="J234" s="6"/>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="31"/>
       <c r="B235" s="5"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="27">
+        <v>4</v>
+      </c>
+      <c r="F235" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H235" s="28"/>
       <c r="J235" s="6"/>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="31"/>
       <c r="B236" s="5"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="27">
+        <v>5</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G236" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H236" s="28"/>
       <c r="J236" s="6"/>
       <c r="K236" s="10"/>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="31"/>
       <c r="B237" s="5"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="27">
+        <v>6</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H237" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J237" s="6"/>
       <c r="K237" s="10"/>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A238" s="31"/>
       <c r="B238" s="5"/>
+      <c r="D238" s="31"/>
+      <c r="E238" s="27">
+        <v>7</v>
+      </c>
+      <c r="F238" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G238" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H238" s="28"/>
       <c r="J238" s="6"/>
       <c r="K238" s="10"/>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="31"/>
       <c r="B239" s="5"/>
+      <c r="D239" s="31"/>
+      <c r="E239" s="27">
+        <v>8</v>
+      </c>
+      <c r="F239" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G239" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H239" s="28"/>
       <c r="J239" s="6"/>
       <c r="K239" s="10"/>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A240" s="31"/>
       <c r="B240" s="5"/>
+      <c r="D240" s="31"/>
+      <c r="E240" s="27">
+        <v>9</v>
+      </c>
+      <c r="F240" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G240" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H240" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J240" s="6"/>
       <c r="K240" s="10"/>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="31"/>
       <c r="B241" s="5"/>
+      <c r="D241" s="31"/>
+      <c r="E241" s="27">
+        <v>10</v>
+      </c>
+      <c r="F241" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G241" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H241" s="28"/>
       <c r="J241" s="6"/>
       <c r="K241" s="10"/>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A242" s="31"/>
       <c r="B242" s="5"/>
+      <c r="D242" s="31"/>
+      <c r="E242" s="27">
+        <v>11</v>
+      </c>
+      <c r="F242" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G242" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H242" s="28"/>
       <c r="J242" s="6"/>
       <c r="K242" s="10"/>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="31"/>
       <c r="B243" s="5"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="27">
+        <v>12</v>
+      </c>
+      <c r="F243" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G243" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H243" s="28"/>
       <c r="J243" s="6"/>
       <c r="K243" s="10"/>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="31"/>
       <c r="B244" s="5"/>
+      <c r="D244" s="31"/>
+      <c r="E244" s="27">
+        <v>13</v>
+      </c>
+      <c r="F244" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G244" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H244" s="28"/>
       <c r="J244" s="6"/>
       <c r="K244" s="10"/>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="31"/>
       <c r="B245" s="5"/>
+      <c r="D245" s="31"/>
+      <c r="E245" s="27">
+        <v>14</v>
+      </c>
+      <c r="F245" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G245" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="J245" s="6"/>
       <c r="K245" s="10"/>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="31"/>
       <c r="B246" s="5"/>
+      <c r="D246" s="31"/>
+      <c r="E246" s="27">
+        <v>15</v>
+      </c>
+      <c r="F246" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G246" s="28" t="s">
+        <v>61</v>
+      </c>
       <c r="J246" s="6"/>
       <c r="K246" s="10"/>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="31"/>
       <c r="B247" s="5"/>
+      <c r="D247" s="31"/>
+      <c r="E247" s="27">
+        <v>16</v>
+      </c>
+      <c r="F247" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G247" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="J247" s="6"/>
       <c r="K247" s="10"/>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
       <c r="J248" s="6"/>
       <c r="K248" s="10"/>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
       <c r="J249" s="6"/>
       <c r="K249" s="10"/>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="31" t="s">
+        <v>202</v>
+      </c>
       <c r="B250" s="5"/>
+      <c r="D250" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E250" s="7">
+        <v>1</v>
+      </c>
+      <c r="F250" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G250" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H250" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J250" s="6"/>
       <c r="K250" s="10"/>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="31"/>
       <c r="B251" s="5"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="27">
+        <v>2</v>
+      </c>
+      <c r="F251" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H251" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J251" s="6"/>
       <c r="K251" s="10"/>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="31"/>
       <c r="B252" s="5"/>
+      <c r="D252" s="31"/>
+      <c r="E252" s="27">
+        <v>3</v>
+      </c>
+      <c r="F252" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H252" s="28"/>
       <c r="J252" s="6"/>
       <c r="K252" s="10"/>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="31"/>
       <c r="B253" s="5"/>
+      <c r="D253" s="31"/>
+      <c r="E253" s="27">
+        <v>4</v>
+      </c>
+      <c r="F253" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H253" s="28"/>
       <c r="J253" s="6"/>
       <c r="K253" s="10"/>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="31"/>
       <c r="B254" s="5"/>
+      <c r="D254" s="31"/>
+      <c r="E254" s="27">
+        <v>5</v>
+      </c>
+      <c r="F254" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G254" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H254" s="28"/>
       <c r="J254" s="6"/>
       <c r="K254" s="10"/>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="31"/>
       <c r="B255" s="5"/>
+      <c r="D255" s="31"/>
+      <c r="E255" s="27">
+        <v>6</v>
+      </c>
+      <c r="F255" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G255" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H255" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J255" s="6"/>
       <c r="K255" s="10"/>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A256" s="31"/>
       <c r="B256" s="5"/>
+      <c r="D256" s="31"/>
+      <c r="E256" s="27">
+        <v>7</v>
+      </c>
+      <c r="F256" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G256" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H256" s="28"/>
       <c r="J256" s="6"/>
       <c r="K256" s="10"/>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="31"/>
       <c r="B257" s="5"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="27">
+        <v>8</v>
+      </c>
+      <c r="F257" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G257" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H257" s="28"/>
       <c r="J257" s="6"/>
       <c r="K257" s="10"/>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A258" s="31"/>
       <c r="B258" s="5"/>
+      <c r="D258" s="31"/>
+      <c r="E258" s="27">
+        <v>9</v>
+      </c>
+      <c r="F258" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G258" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H258" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J258" s="6"/>
       <c r="K258" s="10"/>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="31"/>
       <c r="B259" s="5"/>
+      <c r="D259" s="31"/>
+      <c r="E259" s="27">
+        <v>10</v>
+      </c>
+      <c r="F259" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G259" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H259" s="28"/>
       <c r="J259" s="6"/>
       <c r="K259" s="10"/>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A260" s="31"/>
       <c r="B260" s="5"/>
+      <c r="D260" s="31"/>
+      <c r="E260" s="27">
+        <v>11</v>
+      </c>
+      <c r="F260" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G260" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H260" s="28"/>
       <c r="J260" s="6"/>
       <c r="K260" s="10"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A261" s="31"/>
       <c r="B261" s="5"/>
+      <c r="D261" s="31"/>
+      <c r="E261" s="27">
+        <v>12</v>
+      </c>
+      <c r="F261" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G261" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H261" s="28"/>
       <c r="J261" s="6"/>
       <c r="K261" s="10"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="31"/>
       <c r="B262" s="5"/>
+      <c r="D262" s="31"/>
+      <c r="E262" s="27">
+        <v>13</v>
+      </c>
+      <c r="F262" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G262" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H262" s="28"/>
       <c r="J262" s="6"/>
       <c r="K262" s="10"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="31"/>
       <c r="B263" s="5"/>
+      <c r="D263" s="31"/>
+      <c r="E263" s="27">
+        <v>14</v>
+      </c>
+      <c r="F263" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G263" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H263" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="J263" s="6"/>
       <c r="K263" s="10"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="31"/>
       <c r="B264" s="5"/>
+      <c r="D264" s="31"/>
+      <c r="E264" s="27">
+        <v>15</v>
+      </c>
+      <c r="F264" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G264" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H264" s="28"/>
       <c r="J264" s="6"/>
       <c r="K264" s="10"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="31"/>
       <c r="B265" s="5"/>
+      <c r="D265" s="31"/>
+      <c r="E265" s="27">
+        <v>16</v>
+      </c>
+      <c r="F265" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G265" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H265" s="28"/>
       <c r="J265" s="6"/>
       <c r="K265" s="10"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="31"/>
       <c r="B266" s="5"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="27">
+        <v>17</v>
+      </c>
+      <c r="F266" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G266" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" s="28"/>
       <c r="J266" s="6"/>
       <c r="K266" s="10"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="31"/>
       <c r="B267" s="5"/>
+      <c r="D267" s="31"/>
+      <c r="E267" s="27">
+        <v>18</v>
+      </c>
+      <c r="F267" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G267" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H267" s="28"/>
       <c r="J267" s="6"/>
       <c r="K267" s="10"/>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="31"/>
       <c r="B268" s="5"/>
+      <c r="D268" s="31"/>
+      <c r="E268" s="27">
+        <v>19</v>
+      </c>
+      <c r="F268" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G268" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" s="28"/>
       <c r="J268" s="6"/>
       <c r="K268" s="10"/>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="J269" s="6"/>
       <c r="K269" s="10"/>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B270" s="5"/>
       <c r="J270" s="6"/>
       <c r="K270" s="10"/>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="31" t="s">
+        <v>204</v>
+      </c>
       <c r="B271" s="5"/>
+      <c r="D271" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E271" s="7">
+        <v>1</v>
+      </c>
+      <c r="F271" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G271" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H271" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J271" s="6"/>
       <c r="K271" s="10"/>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="31"/>
       <c r="B272" s="5"/>
+      <c r="D272" s="31"/>
+      <c r="E272" s="27">
+        <v>2</v>
+      </c>
+      <c r="F272" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G272" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H272" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J272" s="6"/>
       <c r="K272" s="10"/>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="31"/>
       <c r="B273" s="5"/>
+      <c r="D273" s="31"/>
+      <c r="E273" s="27">
+        <v>3</v>
+      </c>
+      <c r="F273" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G273" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H273" s="28"/>
       <c r="J273" s="6"/>
       <c r="K273" s="10"/>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="31"/>
       <c r="B274" s="5"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="27">
+        <v>4</v>
+      </c>
+      <c r="F274" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G274" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H274" s="28"/>
       <c r="J274" s="6"/>
       <c r="K274" s="10"/>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="31"/>
       <c r="B275" s="5"/>
+      <c r="D275" s="31"/>
+      <c r="E275" s="27">
+        <v>5</v>
+      </c>
+      <c r="F275" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G275" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H275" s="28"/>
       <c r="J275" s="6"/>
       <c r="K275" s="10"/>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="31"/>
       <c r="B276" s="5"/>
+      <c r="D276" s="31"/>
+      <c r="E276" s="27">
+        <v>6</v>
+      </c>
+      <c r="F276" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G276" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H276" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J276" s="6"/>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A277" s="31"/>
       <c r="B277" s="5"/>
+      <c r="D277" s="31"/>
+      <c r="E277" s="27">
+        <v>7</v>
+      </c>
+      <c r="F277" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G277" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H277" s="28"/>
       <c r="J277" s="6"/>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A278" s="31"/>
       <c r="B278" s="5"/>
+      <c r="D278" s="31"/>
+      <c r="E278" s="27">
+        <v>8</v>
+      </c>
+      <c r="F278" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G278" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H278" s="28"/>
       <c r="J278" s="6"/>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A279" s="31"/>
       <c r="B279" s="5"/>
+      <c r="D279" s="31"/>
+      <c r="E279" s="27">
+        <v>9</v>
+      </c>
+      <c r="F279" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G279" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H279" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J279" s="6"/>
       <c r="K279" s="10"/>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="31"/>
       <c r="B280" s="5"/>
+      <c r="D280" s="31"/>
+      <c r="E280" s="27">
+        <v>10</v>
+      </c>
+      <c r="F280" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G280" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H280" s="28"/>
       <c r="J280" s="6"/>
       <c r="K280" s="10"/>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A281" s="31"/>
       <c r="B281" s="5"/>
+      <c r="D281" s="31"/>
+      <c r="E281" s="27">
+        <v>11</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G281" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H281" s="28"/>
       <c r="J281" s="6"/>
       <c r="K281" s="10"/>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="31"/>
       <c r="B282" s="5"/>
+      <c r="D282" s="31"/>
+      <c r="E282" s="27">
+        <v>12</v>
+      </c>
+      <c r="F282" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G282" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H282" s="28"/>
       <c r="J282" s="6"/>
       <c r="K282" s="10"/>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="31"/>
       <c r="B283" s="5"/>
+      <c r="D283" s="31"/>
+      <c r="E283" s="27">
+        <v>13</v>
+      </c>
+      <c r="F283" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H283" s="28"/>
       <c r="J283" s="6"/>
       <c r="K283" s="10"/>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="31"/>
       <c r="B284" s="5"/>
+      <c r="D284" s="31"/>
+      <c r="E284" s="27">
+        <v>14</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G284" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H284" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="J284" s="6"/>
       <c r="K284" s="10"/>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="31"/>
       <c r="B285" s="5"/>
+      <c r="D285" s="31"/>
+      <c r="E285" s="27">
+        <v>15</v>
+      </c>
+      <c r="F285" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G285" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H285" s="28"/>
       <c r="J285" s="6"/>
       <c r="K285" s="10"/>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="31"/>
       <c r="B286" s="5"/>
+      <c r="D286" s="31"/>
+      <c r="E286" s="27">
+        <v>16</v>
+      </c>
+      <c r="F286" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G286" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="J286" s="6"/>
       <c r="K286" s="10"/>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B287" s="5"/>
       <c r="J287" s="6"/>
       <c r="K287" s="10"/>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B288" s="5"/>
       <c r="J288" s="6"/>
       <c r="K288" s="10"/>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B289" s="5"/>
       <c r="J289" s="6"/>
       <c r="K289" s="10"/>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="31" t="s">
+        <v>206</v>
+      </c>
       <c r="B290" s="5"/>
+      <c r="D290" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F290" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G290" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H290" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J290" s="6"/>
       <c r="K290" s="10"/>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="31"/>
       <c r="B291" s="5"/>
+      <c r="D291" s="31"/>
+      <c r="F291" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G291" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H291" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J291" s="6"/>
       <c r="K291" s="10"/>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="31"/>
       <c r="B292" s="5"/>
+      <c r="D292" s="31"/>
+      <c r="F292" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G292" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H292" s="28"/>
       <c r="J292" s="6"/>
       <c r="K292" s="10"/>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" s="31"/>
       <c r="B293" s="5"/>
+      <c r="D293" s="31"/>
+      <c r="F293" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H293" s="28"/>
       <c r="J293" s="6"/>
       <c r="K293" s="10"/>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="31"/>
       <c r="B294" s="5"/>
+      <c r="D294" s="31"/>
+      <c r="F294" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G294" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H294" s="28"/>
       <c r="J294" s="6"/>
       <c r="K294" s="10"/>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="31"/>
       <c r="B295" s="5"/>
+      <c r="D295" s="31"/>
+      <c r="F295" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G295" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H295" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J295" s="6"/>
       <c r="K295" s="10"/>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A296" s="31"/>
       <c r="B296" s="5"/>
+      <c r="D296" s="31"/>
+      <c r="F296" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G296" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H296" s="28"/>
       <c r="J296" s="6"/>
       <c r="K296" s="10"/>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A297" s="31"/>
       <c r="B297" s="5"/>
+      <c r="D297" s="31"/>
+      <c r="F297" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G297" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H297" s="28"/>
       <c r="J297" s="6"/>
       <c r="K297" s="10"/>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A298" s="31"/>
       <c r="B298" s="5"/>
+      <c r="D298" s="31"/>
+      <c r="F298" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G298" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H298" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="J298" s="6"/>
       <c r="K298" s="10"/>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="31"/>
       <c r="B299" s="5"/>
+      <c r="D299" s="31"/>
+      <c r="F299" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G299" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H299" s="28"/>
       <c r="J299" s="6"/>
       <c r="K299" s="10"/>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A300" s="31"/>
       <c r="B300" s="5"/>
+      <c r="D300" s="31"/>
+      <c r="F300" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G300" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H300" s="28"/>
       <c r="J300" s="6"/>
       <c r="K300" s="10"/>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="31"/>
       <c r="B301" s="5"/>
+      <c r="D301" s="31"/>
+      <c r="F301" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G301" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="J301" s="6"/>
       <c r="K301" s="10"/>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A302" s="31"/>
       <c r="B302" s="5"/>
+      <c r="D302" s="31"/>
+      <c r="F302" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G302" s="28" t="s">
+        <v>210</v>
+      </c>
       <c r="J302" s="6"/>
       <c r="K302" s="10"/>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B303" s="5"/>
       <c r="J303" s="6"/>
       <c r="K303" s="10"/>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B304" s="5"/>
       <c r="J304" s="6"/>
       <c r="K304" s="10"/>
     </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="B305" s="5"/>
+      <c r="D305" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F305" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G305" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H305" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J305" s="6"/>
       <c r="K305" s="10"/>
     </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B306" s="5"/>
+      <c r="F306" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G306" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H306" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="J306" s="6"/>
       <c r="K306" s="10"/>
     </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B307" s="5"/>
+      <c r="F307" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G307" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H307" s="28"/>
       <c r="J307" s="6"/>
       <c r="K307" s="10"/>
     </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B308" s="5"/>
+      <c r="F308" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G308" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H308" s="28"/>
       <c r="J308" s="6"/>
       <c r="K308" s="10"/>
     </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B309" s="5"/>
+      <c r="F309" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G309" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H309" s="28"/>
       <c r="J309" s="6"/>
       <c r="K309" s="10"/>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B310" s="5"/>
+      <c r="F310" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G310" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H310" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="J310" s="6"/>
       <c r="K310" s="10"/>
     </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B311" s="5"/>
       <c r="J311" s="6"/>
       <c r="K311" s="10"/>
     </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B312" s="5"/>
       <c r="J312" s="6"/>
       <c r="K312" s="10"/>
     </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B313" s="5"/>
       <c r="J313" s="6"/>
       <c r="K313" s="10"/>
     </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
       <c r="J314" s="6"/>
       <c r="K314" s="10"/>
     </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
       <c r="J315" s="6"/>
       <c r="K315" s="10"/>
     </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B316" s="5"/>
       <c r="J316" s="6"/>
       <c r="K316" s="10"/>
     </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
       <c r="J317" s="6"/>
       <c r="K317" s="10"/>
     </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
       <c r="J318" s="6"/>
       <c r="K318" s="10"/>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B319" s="5"/>
       <c r="J319" s="6"/>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B320" s="5"/>
       <c r="J320" s="6"/>
       <c r="K320" s="10"/>
@@ -4937,17 +7174,17 @@
     </row>
     <row r="487" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B487" s="5"/>
-      <c r="J487" s="6"/>
+      <c r="J487" s="10"/>
       <c r="K487" s="10"/>
     </row>
     <row r="488" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B488" s="5"/>
-      <c r="J488" s="6"/>
+      <c r="J488" s="10"/>
       <c r="K488" s="10"/>
     </row>
     <row r="489" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B489" s="5"/>
-      <c r="J489" s="6"/>
+      <c r="J489" s="10"/>
       <c r="K489" s="10"/>
     </row>
     <row r="490" spans="2:11" x14ac:dyDescent="0.25">
@@ -5556,17 +7793,14 @@
       <c r="K610" s="10"/>
     </row>
     <row r="611" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B611" s="5"/>
       <c r="J611" s="10"/>
       <c r="K611" s="10"/>
     </row>
     <row r="612" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B612" s="5"/>
       <c r="J612" s="10"/>
       <c r="K612" s="10"/>
     </row>
     <row r="613" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B613" s="5"/>
       <c r="J613" s="10"/>
       <c r="K613" s="10"/>
     </row>
@@ -5875,15 +8109,12 @@
       <c r="K689" s="10"/>
     </row>
     <row r="690" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J690" s="10"/>
       <c r="K690" s="10"/>
     </row>
     <row r="691" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J691" s="10"/>
       <c r="K691" s="10"/>
     </row>
     <row r="692" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J692" s="10"/>
       <c r="K692" s="10"/>
     </row>
     <row r="693" spans="10:11" x14ac:dyDescent="0.25">
@@ -6012,21 +8243,28 @@
     <row r="734" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K734" s="10"/>
     </row>
-    <row r="735" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K735" s="10"/>
-    </row>
-    <row r="736" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K736" s="10"/>
-    </row>
-    <row r="737" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K737" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="44">
+    <mergeCell ref="A290:A302"/>
+    <mergeCell ref="D290:D302"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="D139:D148"/>
+    <mergeCell ref="A250:A268"/>
+    <mergeCell ref="D250:D268"/>
+    <mergeCell ref="A271:A286"/>
+    <mergeCell ref="D271:D286"/>
+    <mergeCell ref="A105:A114"/>
+    <mergeCell ref="D105:D114"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="A129:A136"/>
+    <mergeCell ref="D129:D136"/>
     <mergeCell ref="A80:A92"/>
     <mergeCell ref="D80:D92"/>
     <mergeCell ref="A65:A77"/>
     <mergeCell ref="D65:D77"/>
+    <mergeCell ref="A95:A102"/>
+    <mergeCell ref="D95:D102"/>
     <mergeCell ref="A21:A30"/>
     <mergeCell ref="D21:D30"/>
     <mergeCell ref="A32:A44"/>
@@ -6039,28 +8277,34 @@
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="A13:A19"/>
     <mergeCell ref="D13:D19"/>
-    <mergeCell ref="A95:A102"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="A105:A114"/>
-    <mergeCell ref="D105:D114"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="D220:D229"/>
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="A232:A247"/>
+    <mergeCell ref="D232:D247"/>
+    <mergeCell ref="A151:A160"/>
+    <mergeCell ref="D151:D160"/>
+    <mergeCell ref="A195:A203"/>
+    <mergeCell ref="D195:D203"/>
+    <mergeCell ref="A207:A216"/>
+    <mergeCell ref="D207:D216"/>
+    <mergeCell ref="A163:A192"/>
+    <mergeCell ref="D163:D192"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J489 C2:C663" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C661:C730" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B610" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J487:J689" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C660 J2:J486" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C664:C733" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B11:B613" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K737" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K734" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J490:J692" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6073,8 +8317,19 @@
     <hyperlink ref="H80" r:id="rId7" xr:uid="{D3E21784-2D5F-4619-8048-9B643B5C9BB0}"/>
     <hyperlink ref="H117" r:id="rId8" xr:uid="{3A9E708C-D44D-47FD-AF93-A0A997CEE3A1}"/>
     <hyperlink ref="H105" r:id="rId9" xr:uid="{5163BC5E-5C9C-45C1-B446-0E00EDA155F6}"/>
+    <hyperlink ref="H129" r:id="rId10" xr:uid="{7352B3D5-52FB-44FA-A84D-06C69A238FED}"/>
+    <hyperlink ref="H139" r:id="rId11" xr:uid="{9D15659E-4E34-45B2-9F6A-CCDD71367F28}"/>
+    <hyperlink ref="H163" r:id="rId12" xr:uid="{0C3B5C0D-A56D-4A65-86BF-7B891085813D}"/>
+    <hyperlink ref="H195" r:id="rId13" xr:uid="{4359EC0E-339E-402E-95D3-6A04EB26D58E}"/>
+    <hyperlink ref="H207" r:id="rId14" xr:uid="{7D343F0F-E39C-4AB6-ACCE-177FCA74DC4A}"/>
+    <hyperlink ref="H220" r:id="rId15" xr:uid="{1319EB9B-1485-46D8-93BA-FB4B524508AE}"/>
+    <hyperlink ref="H232" r:id="rId16" xr:uid="{0790AE30-5E22-464D-91B4-889345F5D985}"/>
+    <hyperlink ref="H250" r:id="rId17" xr:uid="{0C289A79-524E-4301-8029-4FC0B3058DEF}"/>
+    <hyperlink ref="H271" r:id="rId18" xr:uid="{07DEF747-02B9-45EF-8D25-8F5099DFDF8D}"/>
+    <hyperlink ref="H290" r:id="rId19" xr:uid="{E0E50F0F-DEA7-4193-8DEC-0672A0F7DB7D}"/>
+    <hyperlink ref="H305" r:id="rId20" xr:uid="{2A518AE3-D8EB-41AB-92FE-0D62C45A2F52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>